--- a/schema/organizzaione-argomenti.xlsx
+++ b/schema/organizzaione-argomenti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ottavia\Documents\GitHub\test-organizzioni-fisppa\schema\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tita/test-organizzioni-fisppa/schema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEBC29A7-C92E-4F9C-B046-E44FC8A48DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DCF1F4-0FD8-CA40-8762-FAD58BF2BFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9E034456-4125-47B2-8B99-8ECE4D8D9548}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26320" windowHeight="14980" xr2:uid="{9E034456-4125-47B2-8B99-8ECE4D8D9548}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Parte</t>
   </si>
@@ -133,7 +133,13 @@
     <t xml:space="preserve">Modelli di misura - IRT </t>
   </si>
   <si>
-    <t>Numerop di lezioni "libere"</t>
+    <t>giorno</t>
+  </si>
+  <si>
+    <t>Ripasso per esame</t>
+  </si>
+  <si>
+    <t>Parte III</t>
   </si>
 </sst>
 </file>
@@ -177,11 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -197,7 +204,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -513,19 +520,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287D4B79-B5EA-4809-8D60-39C024664462}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="62.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.81640625" customWidth="1"/>
+    <col min="2" max="2" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,10 +544,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -549,11 +560,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1">
+        <v>46076</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -563,11 +577,14 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1">
+        <v>46076</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -577,11 +594,14 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1">
+        <v>46083</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -591,11 +611,14 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1">
+        <v>46090</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -605,11 +628,14 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1">
+        <v>46097</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -619,11 +645,14 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1">
+        <v>46104</v>
+      </c>
+      <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -633,11 +662,14 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1">
+        <v>46111</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -647,11 +679,14 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1">
+        <v>46125</v>
+      </c>
+      <c r="F9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -661,11 +696,14 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1">
+        <v>46132</v>
+      </c>
+      <c r="F10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -675,11 +713,14 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1">
+        <v>46139</v>
+      </c>
+      <c r="F11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -689,11 +730,14 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1">
+        <v>46146</v>
+      </c>
+      <c r="F12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -703,11 +747,14 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1">
+        <v>46153</v>
+      </c>
+      <c r="F13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -717,17 +764,25 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1">
+        <v>46160</v>
+      </c>
+      <c r="F14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C18">
-        <f>21-SUM(C2:C17)</f>
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>46167</v>
       </c>
     </row>
   </sheetData>

--- a/schema/organizzaione-argomenti.xlsx
+++ b/schema/organizzaione-argomenti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tita/test-organizzioni-fisppa/schema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DCF1F4-0FD8-CA40-8762-FAD58BF2BFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8244B929-8144-1249-BF1D-232A241A0224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="26320" windowHeight="14980" xr2:uid="{9E034456-4125-47B2-8B99-8ECE4D8D9548}"/>
   </bookViews>

--- a/schema/organizzaione-argomenti.xlsx
+++ b/schema/organizzaione-argomenti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tita/test-organizzioni-fisppa/schema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8244B929-8144-1249-BF1D-232A241A0224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C391C42B-196B-AD45-916C-922096BF3593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="26320" windowHeight="14980" xr2:uid="{9E034456-4125-47B2-8B99-8ECE4D8D9548}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Introduzione a R</t>
   </si>
   <si>
-    <t>Marghe (1 se siamo fortunate)</t>
-  </si>
-  <si>
     <t>Concetti di statistica di base (dispersione, skewness, kurtosis, IQR, sd, var)</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>Parte III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marghe </t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -544,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -598,7 +598,7 @@
         <v>46083</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -606,24 +606,24 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>46090</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -637,10 +637,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -654,10 +654,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -666,15 +666,15 @@
         <v>46111</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -688,10 +688,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -700,15 +700,15 @@
         <v>46132</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -722,10 +722,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -734,15 +734,15 @@
         <v>46146</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -756,10 +756,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -768,15 +768,15 @@
         <v>46160</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>1</v>

--- a/schema/organizzaione-argomenti.xlsx
+++ b/schema/organizzaione-argomenti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tita/test-organizzioni-fisppa/schema/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ottavia\Documents\GitHub\test-organizzioni-fisppa\schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C391C42B-196B-AD45-916C-922096BF3593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FD6C66-08EF-4825-A9C6-0FBB1229202C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="26320" windowHeight="14980" xr2:uid="{9E034456-4125-47B2-8B99-8ECE4D8D9548}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E034456-4125-47B2-8B99-8ECE4D8D9548}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -523,17 +523,17 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="62.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="62.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -567,7 +567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -584,7 +584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -601,7 +601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -618,7 +618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -635,7 +635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -652,7 +652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -669,7 +669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -686,7 +686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -703,7 +703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -720,7 +720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -737,7 +737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -771,7 +771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
